--- a/Systeme_Entrainement_Empereur_ULTIME.xlsx
+++ b/Systeme_Entrainement_Empereur_ULTIME.xlsx
@@ -555,33 +555,18 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2">
         <f>IF(AND(C2&gt;0,D2&gt;0),C2*(1+D2/30),"")</f>
         <v/>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
       <c r="J2">
         <f>IF(AND(H2&gt;0,I2&gt;0),H2*(1+I2/30),"")</f>
         <v/>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2">
         <f>IF(AND(K2&gt;0,L2&gt;0),K2*(1+L2/30),"")</f>
         <v/>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
       <c r="T2">
         <f>IF(AND(C2&gt;0,D2&gt;0),C2*D2,0)+IF(AND(F2&gt;0,G2&gt;0),F2*G2,0)+IF(AND(H2&gt;0,I2&gt;0),H2*I2,0)+IF(AND(K2&gt;0,L2&gt;0),K2*L2,0)+IF(AND(N2&gt;0,O2&gt;0),N2*O2,0)+IF(AND(P2&gt;0,Q2&gt;0),P2*Q2,0)+IF(AND(R2&gt;0,S2&gt;0),R2*S2,0)</f>
         <v/>
@@ -590,39 +575,23 @@
         <f>T2</f>
         <v/>
       </c>
-      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3">
         <f>IF(AND(C3&gt;0,D3&gt;0),C3*(1+D3/30),"")</f>
         <v/>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
       <c r="J3">
         <f>IF(AND(H3&gt;0,I3&gt;0),H3*(1+I3/30),"")</f>
         <v/>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3">
         <f>IF(AND(K3&gt;0,L3&gt;0),K3*(1+L3/30),"")</f>
         <v/>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3">
         <f>IF(AND(C3&gt;0,D3&gt;0),C3*D3,0)+IF(AND(F3&gt;0,G3&gt;0),F3*G3,0)+IF(AND(H3&gt;0,I3&gt;0),H3*I3,0)+IF(AND(K3&gt;0,L3&gt;0),K3*L3,0)+IF(AND(N3&gt;0,O3&gt;0),N3*O3,0)+IF(AND(P3&gt;0,Q3&gt;0),P3*Q3,0)+IF(AND(R3&gt;0,S3&gt;0),R3*S3,0)</f>
         <v/>
@@ -631,39 +600,23 @@
         <f>T3</f>
         <v/>
       </c>
-      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4">
         <f>IF(AND(C4&gt;0,D4&gt;0),C4*(1+D4/30),"")</f>
         <v/>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
       <c r="J4">
         <f>IF(AND(H4&gt;0,I4&gt;0),H4*(1+I4/30),"")</f>
         <v/>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="M4">
         <f>IF(AND(K4&gt;0,L4&gt;0),K4*(1+L4/30),"")</f>
         <v/>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4">
         <f>IF(AND(C4&gt;0,D4&gt;0),C4*D4,0)+IF(AND(F4&gt;0,G4&gt;0),F4*G4,0)+IF(AND(H4&gt;0,I4&gt;0),H4*I4,0)+IF(AND(K4&gt;0,L4&gt;0),K4*L4,0)+IF(AND(N4&gt;0,O4&gt;0),N4*O4,0)+IF(AND(P4&gt;0,Q4&gt;0),P4*Q4,0)+IF(AND(R4&gt;0,S4&gt;0),R4*S4,0)</f>
         <v/>
@@ -672,39 +625,23 @@
         <f>T4</f>
         <v/>
       </c>
-      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5">
         <f>IF(AND(C5&gt;0,D5&gt;0),C5*(1+D5/30),"")</f>
         <v/>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
       <c r="J5">
         <f>IF(AND(H5&gt;0,I5&gt;0),H5*(1+I5/30),"")</f>
         <v/>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="M5">
         <f>IF(AND(K5&gt;0,L5&gt;0),K5*(1+L5/30),"")</f>
         <v/>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
       <c r="T5">
         <f>IF(AND(C5&gt;0,D5&gt;0),C5*D5,0)+IF(AND(F5&gt;0,G5&gt;0),F5*G5,0)+IF(AND(H5&gt;0,I5&gt;0),H5*I5,0)+IF(AND(K5&gt;0,L5&gt;0),K5*L5,0)+IF(AND(N5&gt;0,O5&gt;0),N5*O5,0)+IF(AND(P5&gt;0,Q5&gt;0),P5*Q5,0)+IF(AND(R5&gt;0,S5&gt;0),R5*S5,0)</f>
         <v/>
@@ -713,39 +650,23 @@
         <f>T5</f>
         <v/>
       </c>
-      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6">
         <f>IF(AND(C6&gt;0,D6&gt;0),C6*(1+D6/30),"")</f>
         <v/>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
       <c r="J6">
         <f>IF(AND(H6&gt;0,I6&gt;0),H6*(1+I6/30),"")</f>
         <v/>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6">
         <f>IF(AND(K6&gt;0,L6&gt;0),K6*(1+L6/30),"")</f>
         <v/>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
       <c r="T6">
         <f>IF(AND(C6&gt;0,D6&gt;0),C6*D6,0)+IF(AND(F6&gt;0,G6&gt;0),F6*G6,0)+IF(AND(H6&gt;0,I6&gt;0),H6*I6,0)+IF(AND(K6&gt;0,L6&gt;0),K6*L6,0)+IF(AND(N6&gt;0,O6&gt;0),N6*O6,0)+IF(AND(P6&gt;0,Q6&gt;0),P6*Q6,0)+IF(AND(R6&gt;0,S6&gt;0),R6*S6,0)</f>
         <v/>
@@ -754,39 +675,23 @@
         <f>T6</f>
         <v/>
       </c>
-      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7">
         <f>IF(AND(C7&gt;0,D7&gt;0),C7*(1+D7/30),"")</f>
         <v/>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
       <c r="J7">
         <f>IF(AND(H7&gt;0,I7&gt;0),H7*(1+I7/30),"")</f>
         <v/>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7">
         <f>IF(AND(K7&gt;0,L7&gt;0),K7*(1+L7/30),"")</f>
         <v/>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
       <c r="T7">
         <f>IF(AND(C7&gt;0,D7&gt;0),C7*D7,0)+IF(AND(F7&gt;0,G7&gt;0),F7*G7,0)+IF(AND(H7&gt;0,I7&gt;0),H7*I7,0)+IF(AND(K7&gt;0,L7&gt;0),K7*L7,0)+IF(AND(N7&gt;0,O7&gt;0),N7*O7,0)+IF(AND(P7&gt;0,Q7&gt;0),P7*Q7,0)+IF(AND(R7&gt;0,S7&gt;0),R7*S7,0)</f>
         <v/>
@@ -795,39 +700,23 @@
         <f>T7</f>
         <v/>
       </c>
-      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8">
         <f>IF(AND(C8&gt;0,D8&gt;0),C8*(1+D8/30),"")</f>
         <v/>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8">
         <f>IF(AND(H8&gt;0,I8&gt;0),H8*(1+I8/30),"")</f>
         <v/>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="M8">
         <f>IF(AND(K8&gt;0,L8&gt;0),K8*(1+L8/30),"")</f>
         <v/>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
       <c r="T8">
         <f>IF(AND(C8&gt;0,D8&gt;0),C8*D8,0)+IF(AND(F8&gt;0,G8&gt;0),F8*G8,0)+IF(AND(H8&gt;0,I8&gt;0),H8*I8,0)+IF(AND(K8&gt;0,L8&gt;0),K8*L8,0)+IF(AND(N8&gt;0,O8&gt;0),N8*O8,0)+IF(AND(P8&gt;0,Q8&gt;0),P8*Q8,0)+IF(AND(R8&gt;0,S8&gt;0),R8*S8,0)</f>
         <v/>
@@ -836,39 +725,23 @@
         <f>T8</f>
         <v/>
       </c>
-      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9">
         <f>IF(AND(C9&gt;0,D9&gt;0),C9*(1+D9/30),"")</f>
         <v/>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
       <c r="J9">
         <f>IF(AND(H9&gt;0,I9&gt;0),H9*(1+I9/30),"")</f>
         <v/>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="M9">
         <f>IF(AND(K9&gt;0,L9&gt;0),K9*(1+L9/30),"")</f>
         <v/>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
       <c r="T9">
         <f>IF(AND(C9&gt;0,D9&gt;0),C9*D9,0)+IF(AND(F9&gt;0,G9&gt;0),F9*G9,0)+IF(AND(H9&gt;0,I9&gt;0),H9*I9,0)+IF(AND(K9&gt;0,L9&gt;0),K9*L9,0)+IF(AND(N9&gt;0,O9&gt;0),N9*O9,0)+IF(AND(P9&gt;0,Q9&gt;0),P9*Q9,0)+IF(AND(R9&gt;0,S9&gt;0),R9*S9,0)</f>
         <v/>
@@ -877,39 +750,23 @@
         <f>T9</f>
         <v/>
       </c>
-      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10">
         <f>IF(AND(C10&gt;0,D10&gt;0),C10*(1+D10/30),"")</f>
         <v/>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
       <c r="J10">
         <f>IF(AND(H10&gt;0,I10&gt;0),H10*(1+I10/30),"")</f>
         <v/>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10">
         <f>IF(AND(K10&gt;0,L10&gt;0),K10*(1+L10/30),"")</f>
         <v/>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
       <c r="T10">
         <f>IF(AND(C10&gt;0,D10&gt;0),C10*D10,0)+IF(AND(F10&gt;0,G10&gt;0),F10*G10,0)+IF(AND(H10&gt;0,I10&gt;0),H10*I10,0)+IF(AND(K10&gt;0,L10&gt;0),K10*L10,0)+IF(AND(N10&gt;0,O10&gt;0),N10*O10,0)+IF(AND(P10&gt;0,Q10&gt;0),P10*Q10,0)+IF(AND(R10&gt;0,S10&gt;0),R10*S10,0)</f>
         <v/>
@@ -918,39 +775,23 @@
         <f>T10</f>
         <v/>
       </c>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
       <c r="E11">
         <f>IF(AND(C11&gt;0,D11&gt;0),C11*(1+D11/30),"")</f>
         <v/>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
       <c r="J11">
         <f>IF(AND(H11&gt;0,I11&gt;0),H11*(1+I11/30),"")</f>
         <v/>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11">
         <f>IF(AND(K11&gt;0,L11&gt;0),K11*(1+L11/30),"")</f>
         <v/>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
       <c r="T11">
         <f>IF(AND(C11&gt;0,D11&gt;0),C11*D11,0)+IF(AND(F11&gt;0,G11&gt;0),F11*G11,0)+IF(AND(H11&gt;0,I11&gt;0),H11*I11,0)+IF(AND(K11&gt;0,L11&gt;0),K11*L11,0)+IF(AND(N11&gt;0,O11&gt;0),N11*O11,0)+IF(AND(P11&gt;0,Q11&gt;0),P11*Q11,0)+IF(AND(R11&gt;0,S11&gt;0),R11*S11,0)</f>
         <v/>
@@ -959,39 +800,23 @@
         <f>T11</f>
         <v/>
       </c>
-      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
       <c r="E12">
         <f>IF(AND(C12&gt;0,D12&gt;0),C12*(1+D12/30),"")</f>
         <v/>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12">
         <f>IF(AND(H12&gt;0,I12&gt;0),H12*(1+I12/30),"")</f>
         <v/>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12">
         <f>IF(AND(K12&gt;0,L12&gt;0),K12*(1+L12/30),"")</f>
         <v/>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
       <c r="T12">
         <f>IF(AND(C12&gt;0,D12&gt;0),C12*D12,0)+IF(AND(F12&gt;0,G12&gt;0),F12*G12,0)+IF(AND(H12&gt;0,I12&gt;0),H12*I12,0)+IF(AND(K12&gt;0,L12&gt;0),K12*L12,0)+IF(AND(N12&gt;0,O12&gt;0),N12*O12,0)+IF(AND(P12&gt;0,Q12&gt;0),P12*Q12,0)+IF(AND(R12&gt;0,S12&gt;0),R12*S12,0)</f>
         <v/>
@@ -1000,39 +825,23 @@
         <f>T12</f>
         <v/>
       </c>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13">
         <f>IF(AND(C13&gt;0,D13&gt;0),C13*(1+D13/30),"")</f>
         <v/>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
       <c r="J13">
         <f>IF(AND(H13&gt;0,I13&gt;0),H13*(1+I13/30),"")</f>
         <v/>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13">
         <f>IF(AND(K13&gt;0,L13&gt;0),K13*(1+L13/30),"")</f>
         <v/>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
       <c r="T13">
         <f>IF(AND(C13&gt;0,D13&gt;0),C13*D13,0)+IF(AND(F13&gt;0,G13&gt;0),F13*G13,0)+IF(AND(H13&gt;0,I13&gt;0),H13*I13,0)+IF(AND(K13&gt;0,L13&gt;0),K13*L13,0)+IF(AND(N13&gt;0,O13&gt;0),N13*O13,0)+IF(AND(P13&gt;0,Q13&gt;0),P13*Q13,0)+IF(AND(R13&gt;0,S13&gt;0),R13*S13,0)</f>
         <v/>
@@ -1041,39 +850,23 @@
         <f>T13</f>
         <v/>
       </c>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
       <c r="E14">
         <f>IF(AND(C14&gt;0,D14&gt;0),C14*(1+D14/30),"")</f>
         <v/>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
       <c r="J14">
         <f>IF(AND(H14&gt;0,I14&gt;0),H14*(1+I14/30),"")</f>
         <v/>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14">
         <f>IF(AND(K14&gt;0,L14&gt;0),K14*(1+L14/30),"")</f>
         <v/>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
       <c r="T14">
         <f>IF(AND(C14&gt;0,D14&gt;0),C14*D14,0)+IF(AND(F14&gt;0,G14&gt;0),F14*G14,0)+IF(AND(H14&gt;0,I14&gt;0),H14*I14,0)+IF(AND(K14&gt;0,L14&gt;0),K14*L14,0)+IF(AND(N14&gt;0,O14&gt;0),N14*O14,0)+IF(AND(P14&gt;0,Q14&gt;0),P14*Q14,0)+IF(AND(R14&gt;0,S14&gt;0),R14*S14,0)</f>
         <v/>
@@ -1082,39 +875,23 @@
         <f>T14</f>
         <v/>
       </c>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15">
         <f>IF(AND(C15&gt;0,D15&gt;0),C15*(1+D15/30),"")</f>
         <v/>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
       <c r="J15">
         <f>IF(AND(H15&gt;0,I15&gt;0),H15*(1+I15/30),"")</f>
         <v/>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15">
         <f>IF(AND(K15&gt;0,L15&gt;0),K15*(1+L15/30),"")</f>
         <v/>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15">
         <f>IF(AND(C15&gt;0,D15&gt;0),C15*D15,0)+IF(AND(F15&gt;0,G15&gt;0),F15*G15,0)+IF(AND(H15&gt;0,I15&gt;0),H15*I15,0)+IF(AND(K15&gt;0,L15&gt;0),K15*L15,0)+IF(AND(N15&gt;0,O15&gt;0),N15*O15,0)+IF(AND(P15&gt;0,Q15&gt;0),P15*Q15,0)+IF(AND(R15&gt;0,S15&gt;0),R15*S15,0)</f>
         <v/>
@@ -1123,39 +900,23 @@
         <f>T15</f>
         <v/>
       </c>
-      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16">
         <f>IF(AND(C16&gt;0,D16&gt;0),C16*(1+D16/30),"")</f>
         <v/>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
       <c r="J16">
         <f>IF(AND(H16&gt;0,I16&gt;0),H16*(1+I16/30),"")</f>
         <v/>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="M16">
         <f>IF(AND(K16&gt;0,L16&gt;0),K16*(1+L16/30),"")</f>
         <v/>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
       <c r="T16">
         <f>IF(AND(C16&gt;0,D16&gt;0),C16*D16,0)+IF(AND(F16&gt;0,G16&gt;0),F16*G16,0)+IF(AND(H16&gt;0,I16&gt;0),H16*I16,0)+IF(AND(K16&gt;0,L16&gt;0),K16*L16,0)+IF(AND(N16&gt;0,O16&gt;0),N16*O16,0)+IF(AND(P16&gt;0,Q16&gt;0),P16*Q16,0)+IF(AND(R16&gt;0,S16&gt;0),R16*S16,0)</f>
         <v/>
@@ -1164,39 +925,23 @@
         <f>T16</f>
         <v/>
       </c>
-      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
       <c r="E17">
         <f>IF(AND(C17&gt;0,D17&gt;0),C17*(1+D17/30),"")</f>
         <v/>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
       <c r="J17">
         <f>IF(AND(H17&gt;0,I17&gt;0),H17*(1+I17/30),"")</f>
         <v/>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="M17">
         <f>IF(AND(K17&gt;0,L17&gt;0),K17*(1+L17/30),"")</f>
         <v/>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
       <c r="T17">
         <f>IF(AND(C17&gt;0,D17&gt;0),C17*D17,0)+IF(AND(F17&gt;0,G17&gt;0),F17*G17,0)+IF(AND(H17&gt;0,I17&gt;0),H17*I17,0)+IF(AND(K17&gt;0,L17&gt;0),K17*L17,0)+IF(AND(N17&gt;0,O17&gt;0),N17*O17,0)+IF(AND(P17&gt;0,Q17&gt;0),P17*Q17,0)+IF(AND(R17&gt;0,S17&gt;0),R17*S17,0)</f>
         <v/>
@@ -1205,39 +950,23 @@
         <f>T17</f>
         <v/>
       </c>
-      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
       <c r="E18">
         <f>IF(AND(C18&gt;0,D18&gt;0),C18*(1+D18/30),"")</f>
         <v/>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
       <c r="J18">
         <f>IF(AND(H18&gt;0,I18&gt;0),H18*(1+I18/30),"")</f>
         <v/>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="M18">
         <f>IF(AND(K18&gt;0,L18&gt;0),K18*(1+L18/30),"")</f>
         <v/>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
       <c r="T18">
         <f>IF(AND(C18&gt;0,D18&gt;0),C18*D18,0)+IF(AND(F18&gt;0,G18&gt;0),F18*G18,0)+IF(AND(H18&gt;0,I18&gt;0),H18*I18,0)+IF(AND(K18&gt;0,L18&gt;0),K18*L18,0)+IF(AND(N18&gt;0,O18&gt;0),N18*O18,0)+IF(AND(P18&gt;0,Q18&gt;0),P18*Q18,0)+IF(AND(R18&gt;0,S18&gt;0),R18*S18,0)</f>
         <v/>
@@ -1246,39 +975,23 @@
         <f>T18</f>
         <v/>
       </c>
-      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19">
         <f>IF(AND(C19&gt;0,D19&gt;0),C19*(1+D19/30),"")</f>
         <v/>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
       <c r="J19">
         <f>IF(AND(H19&gt;0,I19&gt;0),H19*(1+I19/30),"")</f>
         <v/>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="M19">
         <f>IF(AND(K19&gt;0,L19&gt;0),K19*(1+L19/30),"")</f>
         <v/>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
       <c r="T19">
         <f>IF(AND(C19&gt;0,D19&gt;0),C19*D19,0)+IF(AND(F19&gt;0,G19&gt;0),F19*G19,0)+IF(AND(H19&gt;0,I19&gt;0),H19*I19,0)+IF(AND(K19&gt;0,L19&gt;0),K19*L19,0)+IF(AND(N19&gt;0,O19&gt;0),N19*O19,0)+IF(AND(P19&gt;0,Q19&gt;0),P19*Q19,0)+IF(AND(R19&gt;0,S19&gt;0),R19*S19,0)</f>
         <v/>
@@ -1287,39 +1000,23 @@
         <f>T19</f>
         <v/>
       </c>
-      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
       <c r="E20">
         <f>IF(AND(C20&gt;0,D20&gt;0),C20*(1+D20/30),"")</f>
         <v/>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20">
         <f>IF(AND(H20&gt;0,I20&gt;0),H20*(1+I20/30),"")</f>
         <v/>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="M20">
         <f>IF(AND(K20&gt;0,L20&gt;0),K20*(1+L20/30),"")</f>
         <v/>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
       <c r="T20">
         <f>IF(AND(C20&gt;0,D20&gt;0),C20*D20,0)+IF(AND(F20&gt;0,G20&gt;0),F20*G20,0)+IF(AND(H20&gt;0,I20&gt;0),H20*I20,0)+IF(AND(K20&gt;0,L20&gt;0),K20*L20,0)+IF(AND(N20&gt;0,O20&gt;0),N20*O20,0)+IF(AND(P20&gt;0,Q20&gt;0),P20*Q20,0)+IF(AND(R20&gt;0,S20&gt;0),R20*S20,0)</f>
         <v/>
@@ -1328,39 +1025,23 @@
         <f>T20</f>
         <v/>
       </c>
-      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21">
         <f>IF(AND(C21&gt;0,D21&gt;0),C21*(1+D21/30),"")</f>
         <v/>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
       <c r="J21">
         <f>IF(AND(H21&gt;0,I21&gt;0),H21*(1+I21/30),"")</f>
         <v/>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="M21">
         <f>IF(AND(K21&gt;0,L21&gt;0),K21*(1+L21/30),"")</f>
         <v/>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
       <c r="T21">
         <f>IF(AND(C21&gt;0,D21&gt;0),C21*D21,0)+IF(AND(F21&gt;0,G21&gt;0),F21*G21,0)+IF(AND(H21&gt;0,I21&gt;0),H21*I21,0)+IF(AND(K21&gt;0,L21&gt;0),K21*L21,0)+IF(AND(N21&gt;0,O21&gt;0),N21*O21,0)+IF(AND(P21&gt;0,Q21&gt;0),P21*Q21,0)+IF(AND(R21&gt;0,S21&gt;0),R21*S21,0)</f>
         <v/>
@@ -1369,39 +1050,23 @@
         <f>T21</f>
         <v/>
       </c>
-      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22">
         <f>IF(AND(C22&gt;0,D22&gt;0),C22*(1+D22/30),"")</f>
         <v/>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
       <c r="J22">
         <f>IF(AND(H22&gt;0,I22&gt;0),H22*(1+I22/30),"")</f>
         <v/>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22">
         <f>IF(AND(K22&gt;0,L22&gt;0),K22*(1+L22/30),"")</f>
         <v/>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22">
         <f>IF(AND(C22&gt;0,D22&gt;0),C22*D22,0)+IF(AND(F22&gt;0,G22&gt;0),F22*G22,0)+IF(AND(H22&gt;0,I22&gt;0),H22*I22,0)+IF(AND(K22&gt;0,L22&gt;0),K22*L22,0)+IF(AND(N22&gt;0,O22&gt;0),N22*O22,0)+IF(AND(P22&gt;0,Q22&gt;0),P22*Q22,0)+IF(AND(R22&gt;0,S22&gt;0),R22*S22,0)</f>
         <v/>
@@ -1410,39 +1075,23 @@
         <f>T22</f>
         <v/>
       </c>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
       <c r="E23">
         <f>IF(AND(C23&gt;0,D23&gt;0),C23*(1+D23/30),"")</f>
         <v/>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
       <c r="J23">
         <f>IF(AND(H23&gt;0,I23&gt;0),H23*(1+I23/30),"")</f>
         <v/>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23">
         <f>IF(AND(K23&gt;0,L23&gt;0),K23*(1+L23/30),"")</f>
         <v/>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23">
         <f>IF(AND(C23&gt;0,D23&gt;0),C23*D23,0)+IF(AND(F23&gt;0,G23&gt;0),F23*G23,0)+IF(AND(H23&gt;0,I23&gt;0),H23*I23,0)+IF(AND(K23&gt;0,L23&gt;0),K23*L23,0)+IF(AND(N23&gt;0,O23&gt;0),N23*O23,0)+IF(AND(P23&gt;0,Q23&gt;0),P23*Q23,0)+IF(AND(R23&gt;0,S23&gt;0),R23*S23,0)</f>
         <v/>
@@ -1451,39 +1100,23 @@
         <f>T23</f>
         <v/>
       </c>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
       <c r="E24">
         <f>IF(AND(C24&gt;0,D24&gt;0),C24*(1+D24/30),"")</f>
         <v/>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24">
         <f>IF(AND(H24&gt;0,I24&gt;0),H24*(1+I24/30),"")</f>
         <v/>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24">
         <f>IF(AND(K24&gt;0,L24&gt;0),K24*(1+L24/30),"")</f>
         <v/>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24">
         <f>IF(AND(C24&gt;0,D24&gt;0),C24*D24,0)+IF(AND(F24&gt;0,G24&gt;0),F24*G24,0)+IF(AND(H24&gt;0,I24&gt;0),H24*I24,0)+IF(AND(K24&gt;0,L24&gt;0),K24*L24,0)+IF(AND(N24&gt;0,O24&gt;0),N24*O24,0)+IF(AND(P24&gt;0,Q24&gt;0),P24*Q24,0)+IF(AND(R24&gt;0,S24&gt;0),R24*S24,0)</f>
         <v/>
@@ -1492,39 +1125,23 @@
         <f>T24</f>
         <v/>
       </c>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25">
         <f>IF(AND(C25&gt;0,D25&gt;0),C25*(1+D25/30),"")</f>
         <v/>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25">
         <f>IF(AND(H25&gt;0,I25&gt;0),H25*(1+I25/30),"")</f>
         <v/>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="M25">
         <f>IF(AND(K25&gt;0,L25&gt;0),K25*(1+L25/30),"")</f>
         <v/>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
       <c r="T25">
         <f>IF(AND(C25&gt;0,D25&gt;0),C25*D25,0)+IF(AND(F25&gt;0,G25&gt;0),F25*G25,0)+IF(AND(H25&gt;0,I25&gt;0),H25*I25,0)+IF(AND(K25&gt;0,L25&gt;0),K25*L25,0)+IF(AND(N25&gt;0,O25&gt;0),N25*O25,0)+IF(AND(P25&gt;0,Q25&gt;0),P25*Q25,0)+IF(AND(R25&gt;0,S25&gt;0),R25*S25,0)</f>
         <v/>
@@ -1533,39 +1150,23 @@
         <f>T25</f>
         <v/>
       </c>
-      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
       <c r="E26">
         <f>IF(AND(C26&gt;0,D26&gt;0),C26*(1+D26/30),"")</f>
         <v/>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
       <c r="J26">
         <f>IF(AND(H26&gt;0,I26&gt;0),H26*(1+I26/30),"")</f>
         <v/>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="M26">
         <f>IF(AND(K26&gt;0,L26&gt;0),K26*(1+L26/30),"")</f>
         <v/>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
       <c r="T26">
         <f>IF(AND(C26&gt;0,D26&gt;0),C26*D26,0)+IF(AND(F26&gt;0,G26&gt;0),F26*G26,0)+IF(AND(H26&gt;0,I26&gt;0),H26*I26,0)+IF(AND(K26&gt;0,L26&gt;0),K26*L26,0)+IF(AND(N26&gt;0,O26&gt;0),N26*O26,0)+IF(AND(P26&gt;0,Q26&gt;0),P26*Q26,0)+IF(AND(R26&gt;0,S26&gt;0),R26*S26,0)</f>
         <v/>
@@ -1574,39 +1175,23 @@
         <f>T26</f>
         <v/>
       </c>
-      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
       <c r="E27">
         <f>IF(AND(C27&gt;0,D27&gt;0),C27*(1+D27/30),"")</f>
         <v/>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
       <c r="J27">
         <f>IF(AND(H27&gt;0,I27&gt;0),H27*(1+I27/30),"")</f>
         <v/>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="M27">
         <f>IF(AND(K27&gt;0,L27&gt;0),K27*(1+L27/30),"")</f>
         <v/>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
       <c r="T27">
         <f>IF(AND(C27&gt;0,D27&gt;0),C27*D27,0)+IF(AND(F27&gt;0,G27&gt;0),F27*G27,0)+IF(AND(H27&gt;0,I27&gt;0),H27*I27,0)+IF(AND(K27&gt;0,L27&gt;0),K27*L27,0)+IF(AND(N27&gt;0,O27&gt;0),N27*O27,0)+IF(AND(P27&gt;0,Q27&gt;0),P27*Q27,0)+IF(AND(R27&gt;0,S27&gt;0),R27*S27,0)</f>
         <v/>
@@ -1615,39 +1200,23 @@
         <f>T27</f>
         <v/>
       </c>
-      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28">
         <f>IF(AND(C28&gt;0,D28&gt;0),C28*(1+D28/30),"")</f>
         <v/>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
       <c r="J28">
         <f>IF(AND(H28&gt;0,I28&gt;0),H28*(1+I28/30),"")</f>
         <v/>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="M28">
         <f>IF(AND(K28&gt;0,L28&gt;0),K28*(1+L28/30),"")</f>
         <v/>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28">
         <f>IF(AND(C28&gt;0,D28&gt;0),C28*D28,0)+IF(AND(F28&gt;0,G28&gt;0),F28*G28,0)+IF(AND(H28&gt;0,I28&gt;0),H28*I28,0)+IF(AND(K28&gt;0,L28&gt;0),K28*L28,0)+IF(AND(N28&gt;0,O28&gt;0),N28*O28,0)+IF(AND(P28&gt;0,Q28&gt;0),P28*Q28,0)+IF(AND(R28&gt;0,S28&gt;0),R28*S28,0)</f>
         <v/>
@@ -1656,39 +1225,23 @@
         <f>T28</f>
         <v/>
       </c>
-      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29">
         <f>IF(AND(C29&gt;0,D29&gt;0),C29*(1+D29/30),"")</f>
         <v/>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
       <c r="J29">
         <f>IF(AND(H29&gt;0,I29&gt;0),H29*(1+I29/30),"")</f>
         <v/>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="M29">
         <f>IF(AND(K29&gt;0,L29&gt;0),K29*(1+L29/30),"")</f>
         <v/>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
       <c r="T29">
         <f>IF(AND(C29&gt;0,D29&gt;0),C29*D29,0)+IF(AND(F29&gt;0,G29&gt;0),F29*G29,0)+IF(AND(H29&gt;0,I29&gt;0),H29*I29,0)+IF(AND(K29&gt;0,L29&gt;0),K29*L29,0)+IF(AND(N29&gt;0,O29&gt;0),N29*O29,0)+IF(AND(P29&gt;0,Q29&gt;0),P29*Q29,0)+IF(AND(R29&gt;0,S29&gt;0),R29*S29,0)</f>
         <v/>
@@ -1697,39 +1250,23 @@
         <f>T29</f>
         <v/>
       </c>
-      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30">
         <f>IF(AND(C30&gt;0,D30&gt;0),C30*(1+D30/30),"")</f>
         <v/>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
       <c r="J30">
         <f>IF(AND(H30&gt;0,I30&gt;0),H30*(1+I30/30),"")</f>
         <v/>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30">
         <f>IF(AND(K30&gt;0,L30&gt;0),K30*(1+L30/30),"")</f>
         <v/>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
       <c r="T30">
         <f>IF(AND(C30&gt;0,D30&gt;0),C30*D30,0)+IF(AND(F30&gt;0,G30&gt;0),F30*G30,0)+IF(AND(H30&gt;0,I30&gt;0),H30*I30,0)+IF(AND(K30&gt;0,L30&gt;0),K30*L30,0)+IF(AND(N30&gt;0,O30&gt;0),N30*O30,0)+IF(AND(P30&gt;0,Q30&gt;0),P30*Q30,0)+IF(AND(R30&gt;0,S30&gt;0),R30*S30,0)</f>
         <v/>
@@ -1738,39 +1275,23 @@
         <f>T30</f>
         <v/>
       </c>
-      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31">
         <f>IF(AND(C31&gt;0,D31&gt;0),C31*(1+D31/30),"")</f>
         <v/>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31">
         <f>IF(AND(H31&gt;0,I31&gt;0),H31*(1+I31/30),"")</f>
         <v/>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="M31">
         <f>IF(AND(K31&gt;0,L31&gt;0),K31*(1+L31/30),"")</f>
         <v/>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
       <c r="T31">
         <f>IF(AND(C31&gt;0,D31&gt;0),C31*D31,0)+IF(AND(F31&gt;0,G31&gt;0),F31*G31,0)+IF(AND(H31&gt;0,I31&gt;0),H31*I31,0)+IF(AND(K31&gt;0,L31&gt;0),K31*L31,0)+IF(AND(N31&gt;0,O31&gt;0),N31*O31,0)+IF(AND(P31&gt;0,Q31&gt;0),P31*Q31,0)+IF(AND(R31&gt;0,S31&gt;0),R31*S31,0)</f>
         <v/>
@@ -1779,7 +1300,6 @@
         <f>T31</f>
         <v/>
       </c>
-      <c r="V31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1842,7 +1362,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="F2">
         <f>0.35*AVERAGEIF(C2:C9,"Force",D2:D9)+0.35*AVERAGEIF(C2:C9,"Explosivité",D2:D9)+0.10*AVERAGEIF(C2:C9,"Endurance",D2:D9)+0.20*AVERAGEIF(C2:C9,"Puissance Nerveuse",D2:D9)</f>
         <v/>
@@ -1863,7 +1382,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1880,7 +1398,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1897,7 +1414,6 @@
           <t>Explosivité</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1914,7 +1430,6 @@
           <t>Explosivité</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1931,7 +1446,6 @@
           <t>Explosivité</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1948,7 +1462,6 @@
           <t>Puissance Nerveuse</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1965,7 +1478,6 @@
           <t>Explosivité</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2036,9 +1548,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -2046,9 +1556,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -2077,9 +1585,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -2108,9 +1614,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -2118,9 +1622,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
@@ -2142,9 +1644,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-    </row>
+    <row r="19"/>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
@@ -2173,9 +1673,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
@@ -2183,9 +1681,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
@@ -2193,9 +1689,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-    </row>
+    <row r="28"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2268,17 +1762,10 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2286,17 +1773,10 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2304,17 +1784,10 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2322,17 +1795,10 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2340,17 +1806,10 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2358,17 +1817,10 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2376,17 +1828,10 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2394,17 +1839,10 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2412,17 +1850,10 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2430,17 +1861,10 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2448,17 +1872,10 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2466,17 +1883,10 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13">
         <f>IF(OR(ROW()=2,ROW()=3,ROW()=4),"Accumulation",IF(ROW()=5,"Peak",IF(ROW()=6,"Deload","Accumulation")))</f>
         <v/>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3587,11 +2997,6 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2">
         <f>IF(B2&gt;0,B2*10,0)+IF(C2&gt;0,C2*15,0)+IF(D2&gt;0,D2*1,0)+IF(E2&gt;0,E2*5,0)+IF(F2&gt;0,F2*2,0)</f>
         <v/>
@@ -3601,11 +3006,6 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3">
         <f>IF(B3&gt;0,B3*10,0)+IF(C3&gt;0,C3*15,0)+IF(D3&gt;0,D3*1,0)+IF(E3&gt;0,E3*5,0)+IF(F3&gt;0,F3*2,0)</f>
         <v/>
@@ -3615,11 +3015,6 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4">
         <f>IF(B4&gt;0,B4*10,0)+IF(C4&gt;0,C4*15,0)+IF(D4&gt;0,D4*1,0)+IF(E4&gt;0,E4*5,0)+IF(F4&gt;0,F4*2,0)</f>
         <v/>
@@ -3629,11 +3024,6 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5">
         <f>IF(B5&gt;0,B5*10,0)+IF(C5&gt;0,C5*15,0)+IF(D5&gt;0,D5*1,0)+IF(E5&gt;0,E5*5,0)+IF(F5&gt;0,F5*2,0)</f>
         <v/>
@@ -3643,11 +3033,6 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6">
         <f>IF(B6&gt;0,B6*10,0)+IF(C6&gt;0,C6*15,0)+IF(D6&gt;0,D6*1,0)+IF(E6&gt;0,E6*5,0)+IF(F6&gt;0,F6*2,0)</f>
         <v/>
@@ -3657,11 +3042,6 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7">
         <f>IF(B7&gt;0,B7*10,0)+IF(C7&gt;0,C7*15,0)+IF(D7&gt;0,D7*1,0)+IF(E7&gt;0,E7*5,0)+IF(F7&gt;0,F7*2,0)</f>
         <v/>
@@ -3671,11 +3051,6 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
       <c r="G8">
         <f>IF(B8&gt;0,B8*10,0)+IF(C8&gt;0,C8*15,0)+IF(D8&gt;0,D8*1,0)+IF(E8&gt;0,E8*5,0)+IF(F8&gt;0,F8*2,0)</f>
         <v/>
@@ -3685,11 +3060,6 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
       <c r="G9">
         <f>IF(B9&gt;0,B9*10,0)+IF(C9&gt;0,C9*15,0)+IF(D9&gt;0,D9*1,0)+IF(E9&gt;0,E9*5,0)+IF(F9&gt;0,F9*2,0)</f>
         <v/>
@@ -3699,11 +3069,6 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
       <c r="G10">
         <f>IF(B10&gt;0,B10*10,0)+IF(C10&gt;0,C10*15,0)+IF(D10&gt;0,D10*1,0)+IF(E10&gt;0,E10*5,0)+IF(F10&gt;0,F10*2,0)</f>
         <v/>
@@ -3713,11 +3078,6 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
       <c r="G11">
         <f>IF(B11&gt;0,B11*10,0)+IF(C11&gt;0,C11*15,0)+IF(D11&gt;0,D11*1,0)+IF(E11&gt;0,E11*5,0)+IF(F11&gt;0,F11*2,0)</f>
         <v/>
@@ -3727,11 +3087,6 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
       <c r="G12">
         <f>IF(B12&gt;0,B12*10,0)+IF(C12&gt;0,C12*15,0)+IF(D12&gt;0,D12*1,0)+IF(E12&gt;0,E12*5,0)+IF(F12&gt;0,F12*2,0)</f>
         <v/>
@@ -3741,11 +3096,6 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
       <c r="G13">
         <f>IF(B13&gt;0,B13*10,0)+IF(C13&gt;0,C13*15,0)+IF(D13&gt;0,D13*1,0)+IF(E13&gt;0,E13*5,0)+IF(F13&gt;0,F13*2,0)</f>
         <v/>
@@ -3755,11 +3105,6 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
       <c r="G14">
         <f>IF(B14&gt;0,B14*10,0)+IF(C14&gt;0,C14*15,0)+IF(D14&gt;0,D14*1,0)+IF(E14&gt;0,E14*5,0)+IF(F14&gt;0,F14*2,0)</f>
         <v/>
@@ -3769,11 +3114,6 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
       <c r="G15">
         <f>IF(B15&gt;0,B15*10,0)+IF(C15&gt;0,C15*15,0)+IF(D15&gt;0,D15*1,0)+IF(E15&gt;0,E15*5,0)+IF(F15&gt;0,F15*2,0)</f>
         <v/>
@@ -3783,11 +3123,6 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
       <c r="G16">
         <f>IF(B16&gt;0,B16*10,0)+IF(C16&gt;0,C16*15,0)+IF(D16&gt;0,D16*1,0)+IF(E16&gt;0,E16*5,0)+IF(F16&gt;0,F16*2,0)</f>
         <v/>
@@ -3797,11 +3132,6 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
       <c r="G17">
         <f>IF(B17&gt;0,B17*10,0)+IF(C17&gt;0,C17*15,0)+IF(D17&gt;0,D17*1,0)+IF(E17&gt;0,E17*5,0)+IF(F17&gt;0,F17*2,0)</f>
         <v/>
@@ -3811,11 +3141,6 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
       <c r="G18">
         <f>IF(B18&gt;0,B18*10,0)+IF(C18&gt;0,C18*15,0)+IF(D18&gt;0,D18*1,0)+IF(E18&gt;0,E18*5,0)+IF(F18&gt;0,F18*2,0)</f>
         <v/>
@@ -3825,11 +3150,6 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
       <c r="G19">
         <f>IF(B19&gt;0,B19*10,0)+IF(C19&gt;0,C19*15,0)+IF(D19&gt;0,D19*1,0)+IF(E19&gt;0,E19*5,0)+IF(F19&gt;0,F19*2,0)</f>
         <v/>
@@ -3839,11 +3159,6 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="G20">
         <f>IF(B20&gt;0,B20*10,0)+IF(C20&gt;0,C20*15,0)+IF(D20&gt;0,D20*1,0)+IF(E20&gt;0,E20*5,0)+IF(F20&gt;0,F20*2,0)</f>
         <v/>
@@ -3853,11 +3168,6 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21">
         <f>IF(B21&gt;0,B21*10,0)+IF(C21&gt;0,C21*15,0)+IF(D21&gt;0,D21*1,0)+IF(E21&gt;0,E21*5,0)+IF(F21&gt;0,F21*2,0)</f>
         <v/>
@@ -3867,11 +3177,6 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
       <c r="G22">
         <f>IF(B22&gt;0,B22*10,0)+IF(C22&gt;0,C22*15,0)+IF(D22&gt;0,D22*1,0)+IF(E22&gt;0,E22*5,0)+IF(F22&gt;0,F22*2,0)</f>
         <v/>
@@ -3881,11 +3186,6 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
       <c r="G23">
         <f>IF(B23&gt;0,B23*10,0)+IF(C23&gt;0,C23*15,0)+IF(D23&gt;0,D23*1,0)+IF(E23&gt;0,E23*5,0)+IF(F23&gt;0,F23*2,0)</f>
         <v/>
@@ -3895,11 +3195,6 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
       <c r="G24">
         <f>IF(B24&gt;0,B24*10,0)+IF(C24&gt;0,C24*15,0)+IF(D24&gt;0,D24*1,0)+IF(E24&gt;0,E24*5,0)+IF(F24&gt;0,F24*2,0)</f>
         <v/>
@@ -3909,11 +3204,6 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
       <c r="G25">
         <f>IF(B25&gt;0,B25*10,0)+IF(C25&gt;0,C25*15,0)+IF(D25&gt;0,D25*1,0)+IF(E25&gt;0,E25*5,0)+IF(F25&gt;0,F25*2,0)</f>
         <v/>
@@ -3923,11 +3213,6 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
       <c r="G26">
         <f>IF(B26&gt;0,B26*10,0)+IF(C26&gt;0,C26*15,0)+IF(D26&gt;0,D26*1,0)+IF(E26&gt;0,E26*5,0)+IF(F26&gt;0,F26*2,0)</f>
         <v/>
@@ -3937,11 +3222,6 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
       <c r="G27">
         <f>IF(B27&gt;0,B27*10,0)+IF(C27&gt;0,C27*15,0)+IF(D27&gt;0,D27*1,0)+IF(E27&gt;0,E27*5,0)+IF(F27&gt;0,F27*2,0)</f>
         <v/>
@@ -3951,11 +3231,6 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
       <c r="G28">
         <f>IF(B28&gt;0,B28*10,0)+IF(C28&gt;0,C28*15,0)+IF(D28&gt;0,D28*1,0)+IF(E28&gt;0,E28*5,0)+IF(F28&gt;0,F28*2,0)</f>
         <v/>
@@ -3965,11 +3240,6 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
       <c r="G29">
         <f>IF(B29&gt;0,B29*10,0)+IF(C29&gt;0,C29*15,0)+IF(D29&gt;0,D29*1,0)+IF(E29&gt;0,E29*5,0)+IF(F29&gt;0,F29*2,0)</f>
         <v/>
@@ -3979,11 +3249,6 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30">
         <f>IF(B30&gt;0,B30*10,0)+IF(C30&gt;0,C30*15,0)+IF(D30&gt;0,D30*1,0)+IF(E30&gt;0,E30*5,0)+IF(F30&gt;0,F30*2,0)</f>
         <v/>
@@ -3993,11 +3258,6 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
       <c r="G31">
         <f>IF(B31&gt;0,B31*10,0)+IF(C31&gt;0,C31*15,0)+IF(D31&gt;0,D31*1,0)+IF(E31&gt;0,E31*5,0)+IF(F31&gt;0,F31*2,0)</f>
         <v/>
@@ -4506,7 +3766,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>5</v>
       </c>
@@ -4521,7 +3780,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>6</v>
       </c>
@@ -4536,7 +3794,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>7</v>
       </c>
@@ -4551,7 +3808,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>8</v>
       </c>
@@ -4566,7 +3822,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>9</v>
       </c>
@@ -4581,7 +3836,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>10</v>
       </c>
@@ -4596,7 +3850,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>5</v>
       </c>
@@ -4611,7 +3864,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>6</v>
       </c>
@@ -4626,7 +3878,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>7</v>
       </c>
@@ -4641,7 +3892,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>8</v>
       </c>
@@ -4656,7 +3906,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>9</v>
       </c>
@@ -4671,7 +3920,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>10</v>
       </c>
@@ -4686,7 +3934,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>5</v>
       </c>
@@ -4701,7 +3948,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>6</v>
       </c>
@@ -4716,7 +3962,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>7</v>
       </c>
@@ -4731,7 +3976,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>8</v>
       </c>
@@ -4746,7 +3990,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>9</v>
       </c>
@@ -4761,7 +4004,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>10</v>
       </c>
@@ -4776,7 +4018,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>5</v>
       </c>
@@ -4791,7 +4032,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>6</v>
       </c>
@@ -4806,7 +4046,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>7</v>
       </c>
@@ -4821,7 +4060,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>8</v>
       </c>
@@ -4836,7 +4074,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>9</v>
       </c>
@@ -4851,7 +4088,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
         <v>10</v>
       </c>
@@ -4866,7 +4102,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
         <v>5</v>
       </c>
@@ -4881,7 +4116,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>6</v>
       </c>
@@ -4896,7 +4130,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>7</v>
       </c>
@@ -4911,7 +4144,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
         <v>8</v>
       </c>
@@ -4926,7 +4158,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>9</v>
       </c>
@@ -4941,7 +4172,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>10</v>
       </c>
@@ -4956,7 +4186,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>5</v>
       </c>
@@ -4971,7 +4200,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>6</v>
       </c>
@@ -4986,7 +4214,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>7</v>
       </c>
@@ -5001,7 +4228,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>8</v>
       </c>
@@ -5016,7 +4242,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>9</v>
       </c>
@@ -5031,7 +4256,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>10</v>
       </c>
@@ -5046,7 +4270,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
         <v>5</v>
       </c>
@@ -5061,7 +4284,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>6</v>
       </c>
@@ -5076,7 +4298,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>7</v>
       </c>
@@ -5091,7 +4312,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>8</v>
       </c>
@@ -5106,7 +4326,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>9</v>
       </c>
@@ -5121,7 +4340,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
         <v>10</v>
       </c>
@@ -5136,7 +4354,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>5</v>
       </c>
@@ -5151,7 +4368,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>6</v>
       </c>
@@ -5166,7 +4382,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>7</v>
       </c>
@@ -5181,7 +4396,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>8</v>
       </c>
@@ -5196,7 +4410,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
         <v>9</v>
       </c>
@@ -5211,7 +4424,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>10</v>
       </c>
@@ -5226,7 +4438,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
         <v>5</v>
       </c>
@@ -5241,7 +4452,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
         <v>6</v>
       </c>
@@ -5256,7 +4466,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
         <v>7</v>
       </c>
@@ -5271,7 +4480,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
         <v>8</v>
       </c>
@@ -5286,7 +4494,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
         <v>9</v>
       </c>
@@ -5301,7 +4508,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
         <v>10</v>
       </c>
@@ -5316,7 +4522,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
         <v>5</v>
       </c>
@@ -5331,7 +4536,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
         <v>6</v>
       </c>
@@ -5346,7 +4550,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
         <v>7</v>
       </c>
@@ -5361,7 +4564,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
         <v>8</v>
       </c>
@@ -5376,7 +4578,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
         <v>9</v>
       </c>
@@ -5391,7 +4592,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
         <v>10</v>
       </c>
@@ -5406,7 +4606,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
         <v>5</v>
       </c>
@@ -5421,7 +4620,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
         <v>6</v>
       </c>
@@ -5436,7 +4634,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
         <v>7</v>
       </c>
@@ -5451,7 +4648,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
         <v>8</v>
       </c>
@@ -5466,7 +4662,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
         <v>9</v>
       </c>
@@ -5481,7 +4676,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
         <v>10</v>
       </c>
@@ -5496,7 +4690,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>5</v>
       </c>
@@ -5511,7 +4704,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>6</v>
       </c>
@@ -5526,7 +4718,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
         <v>7</v>
       </c>
@@ -5541,7 +4732,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
         <v>8</v>
       </c>
@@ -5556,7 +4746,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
         <v>9</v>
       </c>
@@ -5571,7 +4760,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>10</v>
       </c>
@@ -5586,7 +4774,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
         <v>5</v>
       </c>
@@ -5601,7 +4788,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
         <v>6</v>
       </c>
@@ -5616,7 +4802,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>7</v>
       </c>
@@ -5631,7 +4816,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>8</v>
       </c>
@@ -5646,7 +4830,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
         <v>9</v>
       </c>
@@ -5661,7 +4844,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>10</v>
       </c>
@@ -5676,7 +4858,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
         <v>5</v>
       </c>
@@ -5691,7 +4872,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
         <v>6</v>
       </c>
@@ -5706,7 +4886,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>7</v>
       </c>
@@ -5721,7 +4900,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
         <v>8</v>
       </c>
@@ -5736,7 +4914,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
         <v>9</v>
       </c>
@@ -5751,7 +4928,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>10</v>
       </c>
@@ -5766,7 +4942,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>5</v>
       </c>
@@ -5781,7 +4956,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
         <v>6</v>
       </c>
@@ -5796,7 +4970,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
         <v>7</v>
       </c>
@@ -5811,7 +4984,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>8</v>
       </c>
@@ -5826,7 +4998,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
         <v>9</v>
       </c>
@@ -5841,7 +5012,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
         <v>10</v>
       </c>
@@ -5856,7 +5026,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
         <v>5</v>
       </c>
@@ -5871,7 +5040,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
         <v>6</v>
       </c>
@@ -5886,7 +5054,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
         <v>7</v>
       </c>
@@ -5901,7 +5068,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
         <v>8</v>
       </c>
@@ -5916,7 +5082,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
         <v>9</v>
       </c>
@@ -5931,7 +5096,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>10</v>
       </c>
@@ -5946,7 +5110,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
         <v>5</v>
       </c>
@@ -5961,7 +5124,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
         <v>6</v>
       </c>
@@ -5976,7 +5138,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>7</v>
       </c>
@@ -5991,7 +5152,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>8</v>
       </c>
@@ -6006,7 +5166,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
         <v>9</v>
       </c>
@@ -6021,7 +5180,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>10</v>
       </c>
@@ -6036,7 +5194,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
         <v>5</v>
       </c>
@@ -6051,7 +5208,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
         <v>6</v>
       </c>
@@ -6066,7 +5222,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
         <v>7</v>
       </c>
@@ -6081,7 +5236,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
         <v>8</v>
       </c>
@@ -6096,7 +5250,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
         <v>9</v>
       </c>
@@ -6111,7 +5264,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
         <v>10</v>
       </c>
@@ -6126,7 +5278,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
         <v>5</v>
       </c>
@@ -6141,7 +5292,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
         <v>6</v>
       </c>
@@ -6156,7 +5306,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
         <v>7</v>
       </c>
@@ -6171,7 +5320,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
         <v>8</v>
       </c>
@@ -6186,7 +5334,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
         <v>9</v>
       </c>
@@ -6201,7 +5348,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
         <v>10</v>
       </c>
@@ -6216,7 +5362,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
         <v>5</v>
       </c>
@@ -6231,7 +5376,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
         <v>6</v>
       </c>
@@ -6246,7 +5390,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
         <v>7</v>
       </c>
@@ -6261,7 +5404,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
         <v>8</v>
       </c>
@@ -6276,7 +5418,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
         <v>9</v>
       </c>
@@ -6291,7 +5432,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
         <v>10</v>
       </c>
@@ -6306,7 +5446,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
         <v>5</v>
       </c>
@@ -6321,7 +5460,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
         <v>6</v>
       </c>
@@ -6336,7 +5474,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
         <v>7</v>
       </c>
@@ -6351,7 +5488,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
         <v>8</v>
       </c>
@@ -6366,7 +5502,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
         <v>9</v>
       </c>
@@ -6381,7 +5516,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
         <v>10</v>
       </c>
@@ -6396,7 +5530,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
         <v>5</v>
       </c>
@@ -6411,7 +5544,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
         <v>6</v>
       </c>
@@ -6426,7 +5558,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
         <v>7</v>
       </c>
@@ -6441,7 +5572,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
         <v>8</v>
       </c>
@@ -6456,7 +5586,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
         <v>9</v>
       </c>
@@ -6471,7 +5600,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
         <v>10</v>
       </c>
@@ -6486,7 +5614,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
         <v>5</v>
       </c>
@@ -6501,7 +5628,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>6</v>
       </c>
@@ -6516,7 +5642,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
         <v>7</v>
       </c>
@@ -6531,7 +5656,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
         <v>8</v>
       </c>
@@ -6546,7 +5670,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>9</v>
       </c>
@@ -6561,7 +5684,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
         <v>10</v>
       </c>
@@ -6576,7 +5698,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
         <v>5</v>
       </c>
@@ -6591,7 +5712,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
         <v>6</v>
       </c>
@@ -6606,7 +5726,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
         <v>7</v>
       </c>
@@ -6621,7 +5740,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>8</v>
       </c>
@@ -6636,7 +5754,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>9</v>
       </c>
@@ -6651,7 +5768,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
         <v>10</v>
       </c>
@@ -6666,7 +5782,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
         <v>5</v>
       </c>
@@ -6681,7 +5796,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
         <v>6</v>
       </c>
@@ -6696,7 +5810,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
         <v>7</v>
       </c>
@@ -6711,7 +5824,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
         <v>8</v>
       </c>
@@ -6726,7 +5838,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
         <v>9</v>
       </c>
@@ -6741,7 +5852,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
         <v>10</v>
       </c>
@@ -6756,7 +5866,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
         <v>5</v>
       </c>
@@ -6771,7 +5880,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
         <v>6</v>
       </c>
@@ -6786,7 +5894,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
         <v>7</v>
       </c>
@@ -6801,7 +5908,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
         <v>8</v>
       </c>
@@ -6816,7 +5922,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
         <v>9</v>
       </c>
@@ -6831,7 +5936,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
         <v>10</v>
       </c>
@@ -6846,7 +5950,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
         <v>5</v>
       </c>
@@ -6861,7 +5964,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
         <v>6</v>
       </c>
@@ -6876,7 +5978,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
         <v>7</v>
       </c>
@@ -6891,7 +5992,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
         <v>8</v>
       </c>
@@ -6906,7 +6006,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
         <v>9</v>
       </c>
@@ -6921,7 +6020,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
         <v>10</v>
       </c>
@@ -6936,7 +6034,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
         <v>5</v>
       </c>
@@ -6951,7 +6048,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
         <v>6</v>
       </c>
@@ -6966,7 +6062,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
         <v>7</v>
       </c>
@@ -6981,7 +6076,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
         <v>8</v>
       </c>
@@ -6996,7 +6090,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
         <v>9</v>
       </c>
@@ -7011,7 +6104,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
         <v>10</v>
       </c>
@@ -7026,7 +6118,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
         <v>5</v>
       </c>
@@ -7041,7 +6132,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
         <v>6</v>
       </c>
@@ -7056,7 +6146,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
         <v>7</v>
       </c>
@@ -7071,7 +6160,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
         <v>8</v>
       </c>
@@ -7086,7 +6174,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
         <v>9</v>
       </c>
@@ -7101,7 +6188,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
         <v>10</v>
       </c>
@@ -7116,7 +6202,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
         <v>5</v>
       </c>
@@ -7131,7 +6216,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
         <v>6</v>
       </c>
@@ -7146,7 +6230,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
         <v>7</v>
       </c>
@@ -7161,7 +6244,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
         <v>8</v>
       </c>
@@ -7176,7 +6258,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
         <v>9</v>
       </c>
@@ -7191,7 +6272,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
         <v>10</v>
       </c>
@@ -7206,7 +6286,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
         <v>5</v>
       </c>
@@ -7221,7 +6300,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
         <v>6</v>
       </c>
@@ -7236,7 +6314,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
         <v>7</v>
       </c>
@@ -7251,7 +6328,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
         <v>8</v>
       </c>
@@ -7266,7 +6342,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
         <v>9</v>
       </c>
@@ -7281,7 +6356,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
         <v>10</v>
       </c>
@@ -7296,7 +6370,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
         <v>5</v>
       </c>
@@ -7311,7 +6384,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
         <v>6</v>
       </c>
@@ -7326,7 +6398,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
         <v>7</v>
       </c>
@@ -7341,7 +6412,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
         <v>8</v>
       </c>
@@ -7356,7 +6426,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
         <v>9</v>
       </c>
@@ -7371,7 +6440,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
         <v>10</v>
       </c>
@@ -7386,7 +6454,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
         <v>5</v>
       </c>
@@ -7401,7 +6468,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
         <v>6</v>
       </c>
@@ -7416,7 +6482,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
         <v>7</v>
       </c>
@@ -7431,7 +6496,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
         <v>8</v>
       </c>
@@ -7446,7 +6510,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
         <v>9</v>
       </c>
@@ -7461,7 +6524,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
         <v>10</v>
       </c>
@@ -7476,7 +6538,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
         <v>5</v>
       </c>
@@ -7491,7 +6552,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
         <v>6</v>
       </c>
@@ -7506,7 +6566,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
         <v>7</v>
       </c>
@@ -7521,7 +6580,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
         <v>8</v>
       </c>
@@ -7536,7 +6594,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
         <v>9</v>
       </c>
@@ -7551,7 +6608,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
         <v>10</v>
       </c>
@@ -7566,7 +6622,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
         <v>5</v>
       </c>
@@ -7581,7 +6636,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
         <v>6</v>
       </c>
@@ -7596,7 +6650,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
         <v>7</v>
       </c>
@@ -7611,7 +6664,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
         <v>8</v>
       </c>
@@ -7626,7 +6678,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
         <v>9</v>
       </c>
@@ -7641,7 +6692,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
         <v>10</v>
       </c>
@@ -7656,7 +6706,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
         <v>5</v>
       </c>
@@ -7671,7 +6720,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
         <v>6</v>
       </c>
@@ -7686,7 +6734,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
         <v>7</v>
       </c>
@@ -7701,7 +6748,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
         <v>8</v>
       </c>
@@ -7716,7 +6762,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
         <v>9</v>
       </c>
@@ -7731,7 +6776,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
         <v>10</v>
       </c>
@@ -7746,7 +6790,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
         <v>5</v>
       </c>
@@ -7761,7 +6804,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
         <v>6</v>
       </c>
@@ -7776,7 +6818,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
         <v>7</v>
       </c>
@@ -7791,7 +6832,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
         <v>8</v>
       </c>
@@ -7806,7 +6846,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
         <v>9</v>
       </c>
@@ -7821,7 +6860,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
         <v>10</v>
       </c>
@@ -7836,7 +6874,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
         <v>5</v>
       </c>
@@ -7851,7 +6888,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
         <v>6</v>
       </c>
@@ -7866,7 +6902,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
         <v>7</v>
       </c>
@@ -7881,7 +6916,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
         <v>8</v>
       </c>
@@ -7896,7 +6930,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
         <v>9</v>
       </c>
@@ -7911,7 +6944,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
         <v>10</v>
       </c>
@@ -7972,8 +7004,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>5</v>
       </c>
@@ -7988,8 +7018,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>6</v>
       </c>
@@ -8004,8 +7032,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>7</v>
       </c>
@@ -8020,8 +7046,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>8</v>
       </c>
@@ -8036,8 +7060,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>9</v>
       </c>
@@ -8052,8 +7074,6 @@
           <t>Front Squat</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>10</v>
       </c>
@@ -8068,8 +7088,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>5</v>
       </c>
@@ -8084,8 +7102,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>6</v>
       </c>
@@ -8100,8 +7116,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>7</v>
       </c>
@@ -8116,8 +7130,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>8</v>
       </c>
@@ -8132,8 +7144,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>9</v>
       </c>
@@ -8148,8 +7158,6 @@
           <t>Back Squat</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>10</v>
       </c>
@@ -8164,8 +7172,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>5</v>
       </c>
@@ -8180,8 +7186,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>6</v>
       </c>
@@ -8196,8 +7200,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>7</v>
       </c>
@@ -8212,8 +7214,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>8</v>
       </c>
@@ -8228,8 +7228,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>9</v>
       </c>
@@ -8244,8 +7242,6 @@
           <t>Snatch Grip Deadlift</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>10</v>
       </c>
@@ -8260,8 +7256,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>5</v>
       </c>
@@ -8276,8 +7270,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>6</v>
       </c>
@@ -8292,8 +7284,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>7</v>
       </c>
@@ -8308,8 +7298,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>8</v>
       </c>
@@ -8324,8 +7312,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>9</v>
       </c>
@@ -8340,8 +7326,6 @@
           <t>Bulgarian Split Squat</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>10</v>
       </c>
@@ -8356,8 +7340,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>5</v>
       </c>
@@ -8372,8 +7354,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>6</v>
       </c>
@@ -8388,8 +7368,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>7</v>
       </c>
@@ -8404,8 +7382,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>8</v>
       </c>
@@ -8420,8 +7396,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>9</v>
       </c>
@@ -8436,8 +7410,6 @@
           <t>Hack Squat</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>10</v>
       </c>
@@ -8452,8 +7424,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>5</v>
       </c>
@@ -8468,8 +7438,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>6</v>
       </c>
@@ -8484,8 +7452,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>7</v>
       </c>
@@ -8500,8 +7466,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>8</v>
       </c>
@@ -8516,8 +7480,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>9</v>
       </c>
@@ -8532,8 +7494,6 @@
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
         <v>10</v>
       </c>
@@ -8548,8 +7508,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>5</v>
       </c>
@@ -8564,8 +7522,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>6</v>
       </c>
@@ -8580,8 +7536,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>7</v>
       </c>
@@ -8596,8 +7550,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
         <v>8</v>
       </c>
@@ -8612,8 +7564,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>9</v>
       </c>
@@ -8628,8 +7578,6 @@
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
         <v>10</v>
       </c>
@@ -8644,8 +7592,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>5</v>
       </c>
@@ -8660,8 +7606,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>6</v>
       </c>
@@ -8676,8 +7620,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
         <v>7</v>
       </c>
@@ -8692,8 +7634,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
         <v>8</v>
       </c>
@@ -8708,8 +7648,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>9</v>
       </c>
@@ -8724,8 +7662,6 @@
           <t>Leg Curl</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
         <v>10</v>
       </c>
@@ -8740,8 +7676,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>5</v>
       </c>
@@ -8756,8 +7690,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>6</v>
       </c>
@@ -8772,8 +7704,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
         <v>7</v>
       </c>
@@ -8788,8 +7718,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
         <v>8</v>
       </c>
@@ -8804,8 +7732,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
         <v>9</v>
       </c>
@@ -8820,8 +7746,6 @@
           <t>Calf Raise</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>10</v>
       </c>
@@ -8836,8 +7760,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
         <v>5</v>
       </c>
@@ -8852,8 +7774,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>6</v>
       </c>
@@ -8868,8 +7788,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
         <v>7</v>
       </c>
@@ -8884,8 +7802,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
         <v>8</v>
       </c>
@@ -8900,8 +7816,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
         <v>9</v>
       </c>
@@ -8916,8 +7830,6 @@
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
         <v>10</v>
       </c>
@@ -8932,8 +7844,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>5</v>
       </c>
@@ -8948,8 +7858,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>6</v>
       </c>
@@ -8964,8 +7872,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
         <v>7</v>
       </c>
@@ -8980,8 +7886,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
         <v>8</v>
       </c>
@@ -8996,8 +7900,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
         <v>9</v>
       </c>
@@ -9012,8 +7914,6 @@
           <t>Weighted Push-ups</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
         <v>10</v>
       </c>
@@ -9028,8 +7928,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
         <v>5</v>
       </c>
@@ -9044,8 +7942,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
         <v>6</v>
       </c>
@@ -9060,8 +7956,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
         <v>7</v>
       </c>
@@ -9076,8 +7970,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
         <v>8</v>
       </c>
@@ -9092,8 +7984,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
         <v>9</v>
       </c>
@@ -9108,8 +7998,6 @@
           <t>Dips</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
         <v>10</v>
       </c>
@@ -9124,8 +8012,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
         <v>5</v>
       </c>
@@ -9140,8 +8026,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>6</v>
       </c>
@@ -9156,8 +8040,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
         <v>7</v>
       </c>
@@ -9172,8 +8054,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
         <v>8</v>
       </c>
@@ -9188,8 +8068,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
         <v>9</v>
       </c>
@@ -9204,8 +8082,6 @@
           <t>Handstand Push-up</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
         <v>10</v>
       </c>
@@ -9220,8 +8096,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
         <v>5</v>
       </c>
@@ -9236,8 +8110,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
         <v>6</v>
       </c>
@@ -9252,8 +8124,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
         <v>7</v>
       </c>
@@ -9268,8 +8138,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
         <v>8</v>
       </c>
@@ -9284,8 +8152,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
         <v>9</v>
       </c>
@@ -9300,8 +8166,6 @@
           <t>Military Press</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
         <v>10</v>
       </c>
@@ -9316,8 +8180,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
         <v>5</v>
       </c>
@@ -9332,8 +8194,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
         <v>6</v>
       </c>
@@ -9348,8 +8208,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
         <v>7</v>
       </c>
@@ -9364,8 +8222,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
         <v>8</v>
       </c>
@@ -9380,8 +8236,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
         <v>9</v>
       </c>
@@ -9396,8 +8250,6 @@
           <t>Incline Fly</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
         <v>10</v>
       </c>
@@ -9412,8 +8264,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
         <v>5</v>
       </c>
@@ -9428,8 +8278,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
         <v>6</v>
       </c>
@@ -9444,8 +8292,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
         <v>7</v>
       </c>
@@ -9460,8 +8306,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
         <v>8</v>
       </c>
@@ -9476,8 +8320,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
         <v>9</v>
       </c>
@@ -9492,8 +8334,6 @@
           <t>Lateral Raise</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
         <v>10</v>
       </c>
@@ -9508,8 +8348,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
         <v>5</v>
       </c>
@@ -9524,8 +8362,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
         <v>6</v>
       </c>
@@ -9540,8 +8376,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
         <v>7</v>
       </c>
@@ -9556,8 +8390,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
         <v>8</v>
       </c>
@@ -9572,8 +8404,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
         <v>9</v>
       </c>
@@ -9588,8 +8418,6 @@
           <t>Triceps Extension</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
         <v>10</v>
       </c>
@@ -9604,8 +8432,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
         <v>5</v>
       </c>
@@ -9620,8 +8446,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
         <v>6</v>
       </c>
@@ -9636,8 +8460,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
         <v>7</v>
       </c>
@@ -9652,8 +8474,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
         <v>8</v>
       </c>
@@ -9668,8 +8488,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
         <v>9</v>
       </c>
@@ -9684,8 +8502,6 @@
           <t>Weighted Pull-up</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
         <v>10</v>
       </c>
@@ -9700,8 +8516,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
         <v>5</v>
       </c>
@@ -9716,8 +8530,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
         <v>6</v>
       </c>
@@ -9732,8 +8544,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
         <v>7</v>
       </c>
@@ -9748,8 +8558,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
         <v>8</v>
       </c>
@@ -9764,8 +8572,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
         <v>9</v>
       </c>
@@ -9780,8 +8586,6 @@
           <t>Rowing</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
         <v>10</v>
       </c>
@@ -9796,8 +8600,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
         <v>5</v>
       </c>
@@ -9812,8 +8614,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
         <v>6</v>
       </c>
@@ -9828,8 +8628,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
         <v>7</v>
       </c>
@@ -9844,8 +8642,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
         <v>8</v>
       </c>
@@ -9860,8 +8656,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
         <v>9</v>
       </c>
@@ -9876,8 +8670,6 @@
           <t>Good Morning</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
         <v>10</v>
       </c>
@@ -9892,8 +8684,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
         <v>5</v>
       </c>
@@ -9908,8 +8698,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
         <v>6</v>
       </c>
@@ -9924,8 +8712,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
         <v>7</v>
       </c>
@@ -9940,8 +8726,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
         <v>8</v>
       </c>
@@ -9956,8 +8740,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
         <v>9</v>
       </c>
@@ -9972,8 +8754,6 @@
           <t>Muscle-up</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
         <v>10</v>
       </c>
@@ -9988,8 +8768,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
         <v>5</v>
       </c>
@@ -10004,8 +8782,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
         <v>6</v>
       </c>
@@ -10020,8 +8796,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
         <v>7</v>
       </c>
@@ -10036,8 +8810,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
         <v>8</v>
       </c>
@@ -10052,8 +8824,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
         <v>9</v>
       </c>
@@ -10068,8 +8838,6 @@
           <t>Lat Pulldown</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
         <v>10</v>
       </c>
@@ -10084,8 +8852,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
         <v>5</v>
       </c>
@@ -10100,8 +8866,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
         <v>6</v>
       </c>
@@ -10116,8 +8880,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
         <v>7</v>
       </c>
@@ -10132,8 +8894,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
         <v>8</v>
       </c>
@@ -10148,8 +8908,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
         <v>9</v>
       </c>
@@ -10164,8 +8922,6 @@
           <t>Biceps Curl</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
         <v>10</v>
       </c>
@@ -10180,8 +8936,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
         <v>5</v>
       </c>
@@ -10196,8 +8950,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
         <v>6</v>
       </c>
@@ -10212,8 +8964,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
         <v>7</v>
       </c>
@@ -10228,8 +8978,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
         <v>8</v>
       </c>
@@ -10244,8 +8992,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
         <v>9</v>
       </c>
@@ -10260,8 +9006,6 @@
           <t>Face Pull</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
         <v>10</v>
       </c>
@@ -10276,8 +9020,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
         <v>5</v>
       </c>
@@ -10292,8 +9034,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
         <v>6</v>
       </c>
@@ -10308,8 +9048,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
         <v>7</v>
       </c>
@@ -10324,8 +9062,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
         <v>8</v>
       </c>
@@ -10340,8 +9076,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
         <v>9</v>
       </c>
@@ -10356,8 +9090,6 @@
           <t>Belt Squat</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
         <v>10</v>
       </c>
@@ -10372,8 +9104,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
         <v>5</v>
       </c>
@@ -10388,8 +9118,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
         <v>6</v>
       </c>
@@ -10404,8 +9132,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
         <v>7</v>
       </c>
@@ -10420,8 +9146,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>8</v>
       </c>
@@ -10436,8 +9160,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
         <v>9</v>
       </c>
@@ -10452,8 +9174,6 @@
           <t>Romanian Deadlift</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
         <v>10</v>
       </c>
@@ -10468,8 +9188,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
         <v>5</v>
       </c>
@@ -10484,8 +9202,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
         <v>6</v>
       </c>
@@ -10500,8 +9216,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
         <v>7</v>
       </c>
@@ -10516,8 +9230,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
         <v>8</v>
       </c>
@@ -10532,8 +9244,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
         <v>9</v>
       </c>
@@ -10548,8 +9258,6 @@
           <t>Hip Thrust</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
         <v>10</v>
       </c>
@@ -10564,8 +9272,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
         <v>5</v>
       </c>
@@ -10580,8 +9286,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
         <v>6</v>
       </c>
@@ -10596,8 +9300,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
         <v>7</v>
       </c>
@@ -10612,8 +9314,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
         <v>8</v>
       </c>
@@ -10628,8 +9328,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
         <v>9</v>
       </c>
@@ -10644,8 +9342,6 @@
           <t>Kickback</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
         <v>10</v>
       </c>
@@ -10660,8 +9356,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
         <v>5</v>
       </c>
@@ -10676,8 +9370,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
         <v>6</v>
       </c>
@@ -10692,8 +9384,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
         <v>7</v>
       </c>
@@ -10708,8 +9398,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>8</v>
       </c>
@@ -10724,8 +9412,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
         <v>9</v>
       </c>
@@ -10740,8 +9426,6 @@
           <t>Abduction</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
         <v>10</v>
       </c>
@@ -10756,8 +9440,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
         <v>5</v>
       </c>
@@ -10772,8 +9454,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
         <v>6</v>
       </c>
@@ -10788,8 +9468,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
         <v>7</v>
       </c>
@@ -10804,8 +9482,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
         <v>8</v>
       </c>
@@ -10820,8 +9496,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
         <v>9</v>
       </c>
@@ -10836,8 +9510,6 @@
           <t>Box Jump</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>10</v>
       </c>
@@ -10852,8 +9524,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
         <v>5</v>
       </c>
@@ -10868,8 +9538,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
         <v>6</v>
       </c>
@@ -10884,8 +9552,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
         <v>7</v>
       </c>
@@ -10900,8 +9566,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
         <v>8</v>
       </c>
@@ -10916,8 +9580,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
         <v>9</v>
       </c>
@@ -10932,8 +9594,6 @@
           <t>Pistol Squat</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
         <v>10</v>
       </c>
@@ -10948,8 +9608,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
         <v>5</v>
       </c>
@@ -10964,8 +9622,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
         <v>6</v>
       </c>
@@ -10980,8 +9636,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
         <v>7</v>
       </c>
@@ -10996,8 +9650,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
         <v>8</v>
       </c>
@@ -11012,8 +9664,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
         <v>9</v>
       </c>
@@ -11028,8 +9678,6 @@
           <t>Farmer Walk</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
         <v>10</v>
       </c>
@@ -11044,8 +9692,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
         <v>5</v>
       </c>
@@ -11060,8 +9706,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
         <v>6</v>
       </c>
@@ -11076,8 +9720,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
         <v>7</v>
       </c>
@@ -11092,8 +9734,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
         <v>8</v>
       </c>
@@ -11108,8 +9748,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
         <v>9</v>
       </c>
@@ -11124,8 +9762,6 @@
           <t>Burpees</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
         <v>10</v>
       </c>
@@ -11140,8 +9776,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
         <v>5</v>
       </c>
@@ -11156,8 +9790,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
         <v>6</v>
       </c>
@@ -11172,8 +9804,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
         <v>7</v>
       </c>
@@ -11188,8 +9818,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
         <v>8</v>
       </c>
@@ -11204,8 +9832,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
         <v>9</v>
       </c>
@@ -11220,8 +9846,6 @@
           <t>HSPU</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
         <v>10</v>
       </c>
@@ -11236,8 +9860,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
         <v>5</v>
       </c>
@@ -11252,8 +9874,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
         <v>6</v>
       </c>
@@ -11268,8 +9888,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
         <v>7</v>
       </c>
@@ -11284,8 +9902,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
         <v>8</v>
       </c>
@@ -11300,8 +9916,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
         <v>9</v>
       </c>
@@ -11316,8 +9930,6 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
         <v>10</v>
       </c>
@@ -11332,8 +9944,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
         <v>5</v>
       </c>
@@ -11348,8 +9958,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
         <v>6</v>
       </c>
@@ -11364,8 +9972,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
         <v>7</v>
       </c>
@@ -11380,8 +9986,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
         <v>8</v>
       </c>
@@ -11396,8 +10000,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
         <v>9</v>
       </c>
@@ -11412,8 +10014,6 @@
           <t>Planche</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
         <v>10</v>
       </c>
@@ -11428,8 +10028,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
         <v>5</v>
       </c>
@@ -11444,8 +10042,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
         <v>6</v>
       </c>
@@ -11460,8 +10056,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
         <v>7</v>
       </c>
@@ -11476,8 +10070,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
         <v>8</v>
       </c>
@@ -11492,8 +10084,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
         <v>9</v>
       </c>
@@ -11508,8 +10098,6 @@
           <t>Traction Lestée</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
         <v>10</v>
       </c>
@@ -11524,8 +10112,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
         <v>5</v>
       </c>
@@ -11540,8 +10126,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
         <v>6</v>
       </c>
@@ -11556,8 +10140,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
         <v>7</v>
       </c>
@@ -11572,8 +10154,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
         <v>8</v>
       </c>
@@ -11588,8 +10168,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
         <v>9</v>
       </c>
@@ -11604,8 +10182,6 @@
           <t>Pompes Diamant</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
         <v>10</v>
       </c>
@@ -11670,7 +10246,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11687,7 +10262,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11704,7 +10278,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11721,7 +10294,6 @@
           <t>Force</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11738,7 +10310,6 @@
           <t>Calisthénie</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11755,7 +10326,6 @@
           <t>Calisthénie</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11772,7 +10342,6 @@
           <t>Calisthénie</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11789,7 +10358,6 @@
           <t>Calisthénie</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13023,480 +11591,180 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2">
         <f>AVERAGE(B2:H2)*10</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3">
         <f>AVERAGE(B3:H3)*10</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4">
         <f>AVERAGE(B4:H4)*10</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
       <c r="I5">
         <f>AVERAGE(B5:H5)*10</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6">
         <f>AVERAGE(B6:H6)*10</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7">
         <f>AVERAGE(B7:H7)*10</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
       <c r="I8">
         <f>AVERAGE(B8:H8)*10</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
       <c r="I9">
         <f>AVERAGE(B9:H9)*10</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10">
         <f>AVERAGE(B10:H10)*10</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
       <c r="I11">
         <f>AVERAGE(B11:H11)*10</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
       <c r="I12">
         <f>AVERAGE(B12:H12)*10</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
       <c r="I13">
         <f>AVERAGE(B13:H13)*10</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
       <c r="I14">
         <f>AVERAGE(B14:H14)*10</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
       <c r="I15">
         <f>AVERAGE(B15:H15)*10</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
       <c r="I16">
         <f>AVERAGE(B16:H16)*10</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
       <c r="I17">
         <f>AVERAGE(B17:H17)*10</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
       <c r="I18">
         <f>AVERAGE(B18:H18)*10</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
       <c r="I19">
         <f>AVERAGE(B19:H19)*10</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
       <c r="I20">
         <f>AVERAGE(B20:H20)*10</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
       <c r="I21">
         <f>AVERAGE(B21:H21)*10</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
       <c r="I22">
         <f>AVERAGE(B22:H22)*10</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
       <c r="I23">
         <f>AVERAGE(B23:H23)*10</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
       <c r="I24">
         <f>AVERAGE(B24:H24)*10</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
       <c r="I25">
         <f>AVERAGE(B25:H25)*10</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
       <c r="I26">
         <f>AVERAGE(B26:H26)*10</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
       <c r="I27">
         <f>AVERAGE(B27:H27)*10</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
       <c r="I28">
         <f>AVERAGE(B28:H28)*10</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
       <c r="I29">
         <f>AVERAGE(B29:H29)*10</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
       <c r="I30">
         <f>AVERAGE(B30:H30)*10</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
       <c r="I31">
         <f>AVERAGE(B31:H31)*10</f>
         <v/>
